--- a/윷놀이판 인덱스.xlsx
+++ b/윷놀이판 인덱스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClearT\Desktop\CAU\SE\Yut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D19D8F-47EE-4620-BC0E-EF0E6E815698}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB95BDE-F41A-4742-B3CF-B18FB251AE02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14115" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{C284F6B5-D40F-480B-8918-A2E2D44D590F}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{C284F6B5-D40F-480B-8918-A2E2D44D590F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,17 +80,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,119 +514,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B410012-0EEF-4725-9874-04166B4211CE}">
-  <dimension ref="A5:K16"/>
+  <dimension ref="A3:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6"/>
+      <c r="D6" s="1">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6"/>
+      <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6"/>
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6"/>
+      <c r="J6" s="1">
         <v>6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6"/>
+      <c r="L6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6"/>
+      <c r="D8" s="1">
         <v>23</v>
       </c>
-      <c r="I8" s="1">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1">
         <v>21</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6"/>
+      <c r="L8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="1">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1">
         <v>24</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="1">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1">
         <v>25</v>
       </c>
-      <c r="K10" s="1">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1">
         <v>26</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1">
         <v>28</v>
       </c>
-      <c r="K12" s="1">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6"/>
+      <c r="D14" s="1">
         <v>27</v>
       </c>
-      <c r="I14" s="1">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1">
         <v>29</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="6"/>
+      <c r="L14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6"/>
+      <c r="D16" s="1">
         <v>16</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6"/>
+      <c r="F16" s="1">
         <v>17</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6"/>
+      <c r="H16" s="1">
         <v>18</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6"/>
+      <c r="J16" s="1">
         <v>19</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="6"/>
+      <c r="L16" s="1">
         <v>20</v>
       </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
